--- a/adresso_1024_regression_False_.xlsx
+++ b/adresso_1024_regression_False_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>speaker</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>dt</t>
-  </si>
-  <si>
-    <t>gp</t>
   </si>
   <si>
     <t>adrsdt15</t>
@@ -593,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,16 +606,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>25.77444880459875</v>
@@ -626,16 +620,13 @@
       <c r="D2">
         <v>25.66666666666667</v>
       </c>
-      <c r="E2">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>23.61831220074376</v>
@@ -643,16 +634,13 @@
       <c r="D3">
         <v>17.92857142857143</v>
       </c>
-      <c r="E3">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>23.56672922060695</v>
@@ -660,16 +648,13 @@
       <c r="D4">
         <v>28.07692307692308</v>
       </c>
-      <c r="E4">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>15.9496638386312</v>
@@ -677,16 +662,13 @@
       <c r="D5">
         <v>17.92857142857143</v>
       </c>
-      <c r="E5">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>23.29550523400296</v>
@@ -694,16 +676,13 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>24.93940159909936</v>
@@ -711,16 +690,13 @@
       <c r="D7">
         <v>29.04347826086957</v>
       </c>
-      <c r="E7">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>22.89567992255575</v>
@@ -728,16 +704,13 @@
       <c r="D8">
         <v>29.04347826086957</v>
       </c>
-      <c r="E8">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>20.52151158394174</v>
@@ -745,16 +718,13 @@
       <c r="D9">
         <v>25.66666666666667</v>
       </c>
-      <c r="E9">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>17.22411034849366</v>
@@ -762,16 +732,13 @@
       <c r="D10">
         <v>28.5</v>
       </c>
-      <c r="E10">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>24.15917646189941</v>
@@ -779,16 +746,13 @@
       <c r="D11">
         <v>28.5</v>
       </c>
-      <c r="E11">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>27.96371566806631</v>
@@ -796,16 +760,13 @@
       <c r="D12">
         <v>28.07692307692308</v>
       </c>
-      <c r="E12">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>23.44330762024936</v>
@@ -813,16 +774,13 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>23.22495944931319</v>
@@ -830,16 +788,13 @@
       <c r="D14">
         <v>19.83333333333333</v>
       </c>
-      <c r="E14">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>17.42856971395291</v>
@@ -847,16 +802,13 @@
       <c r="D15">
         <v>28.5</v>
       </c>
-      <c r="E15">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>21.51789883563174</v>
@@ -864,33 +816,27 @@
       <c r="D16">
         <v>29.04347826086957</v>
       </c>
-      <c r="E16">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>24.68732896384449</v>
       </c>
       <c r="D17">
-        <v>29</v>
-      </c>
-      <c r="E17">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>20.50495607847967</v>
@@ -898,16 +844,13 @@
       <c r="D18">
         <v>29.04347826086957</v>
       </c>
-      <c r="E18">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>26.43269166575794</v>
@@ -915,16 +858,13 @@
       <c r="D19">
         <v>28.07692307692308</v>
       </c>
-      <c r="E19">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>27.78876879692572</v>
@@ -932,16 +872,13 @@
       <c r="D20">
         <v>29</v>
       </c>
-      <c r="E20">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>26.36797695278262</v>
@@ -949,16 +886,13 @@
       <c r="D21">
         <v>29.04347826086957</v>
       </c>
-      <c r="E21">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>22.21474424399059</v>
@@ -966,16 +900,13 @@
       <c r="D22">
         <v>17.92857142857143</v>
       </c>
-      <c r="E22">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>23.21280581907349</v>
@@ -983,16 +914,13 @@
       <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>20.29953332325739</v>
@@ -1000,16 +928,13 @@
       <c r="D24">
         <v>28.5</v>
       </c>
-      <c r="E24">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>20.51224534596653</v>
@@ -1017,16 +942,13 @@
       <c r="D25">
         <v>28.5</v>
       </c>
-      <c r="E25">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>21.8707798153344</v>
@@ -1034,16 +956,13 @@
       <c r="D26">
         <v>12</v>
       </c>
-      <c r="E26">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>21.94334644708092</v>
@@ -1051,16 +970,13 @@
       <c r="D27">
         <v>29.04347826086957</v>
       </c>
-      <c r="E27">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>22.94823010409749</v>
@@ -1068,16 +984,13 @@
       <c r="D28">
         <v>15.66666666666667</v>
       </c>
-      <c r="E28">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>21.53991043507734</v>
@@ -1085,16 +998,13 @@
       <c r="D29">
         <v>18.66666666666667</v>
       </c>
-      <c r="E29">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>24.30583859031541</v>
@@ -1102,33 +1012,27 @@
       <c r="D30">
         <v>28.5</v>
       </c>
-      <c r="E30">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>21.18793048065031</v>
       </c>
       <c r="D31">
-        <v>29</v>
-      </c>
-      <c r="E31">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>24.84480580688943</v>
@@ -1136,16 +1040,13 @@
       <c r="D32">
         <v>29.04347826086957</v>
       </c>
-      <c r="E32">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>26.53174716603559</v>
@@ -1153,33 +1054,27 @@
       <c r="D33">
         <v>28.07692307692308</v>
       </c>
-      <c r="E33">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>18.71191061904972</v>
       </c>
       <c r="D34">
-        <v>15.5</v>
-      </c>
-      <c r="E34">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>30.27436797637046</v>
@@ -1187,33 +1082,27 @@
       <c r="D35">
         <v>29.04347826086957</v>
       </c>
-      <c r="E35">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>23.54987713508829</v>
       </c>
       <c r="D36">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="E36">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>2.999999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>23.48162152038279</v>
@@ -1221,16 +1110,13 @@
       <c r="D37">
         <v>18.66666666666667</v>
       </c>
-      <c r="E37">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>19.40057829988414</v>
@@ -1238,16 +1124,13 @@
       <c r="D38">
         <v>12</v>
       </c>
-      <c r="E38">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>27.50855855254916</v>
@@ -1255,16 +1138,13 @@
       <c r="D39">
         <v>29.04347826086957</v>
       </c>
-      <c r="E39">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>22.61014226443971</v>
@@ -1272,16 +1152,13 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>22.2744309213795</v>
@@ -1289,16 +1166,13 @@
       <c r="D41">
         <v>13.33333333333333</v>
       </c>
-      <c r="E41">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>25.97266333970859</v>
@@ -1306,16 +1180,13 @@
       <c r="D42">
         <v>29.04347826086957</v>
       </c>
-      <c r="E42">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>19.93752655372929</v>
@@ -1323,16 +1194,13 @@
       <c r="D43">
         <v>13.33333333333333</v>
       </c>
-      <c r="E43">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>23.07174198522671</v>
@@ -1340,16 +1208,13 @@
       <c r="D44">
         <v>29.04347826086957</v>
       </c>
-      <c r="E44">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>17.34137953145638</v>
@@ -1357,16 +1222,13 @@
       <c r="D45">
         <v>28.07692307692308</v>
       </c>
-      <c r="E45">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>28.85499499475544</v>
@@ -1374,33 +1236,27 @@
       <c r="D46">
         <v>28.07692307692308</v>
       </c>
-      <c r="E46">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>24.4593182480554</v>
       </c>
       <c r="D47">
-        <v>29</v>
-      </c>
-      <c r="E47">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>17.41483428830341</v>
@@ -1408,16 +1264,13 @@
       <c r="D48">
         <v>22</v>
       </c>
-      <c r="E48">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>22.38321294724529</v>
@@ -1425,16 +1278,13 @@
       <c r="D49">
         <v>13.33333333333333</v>
       </c>
-      <c r="E49">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>23.27104172690935</v>
@@ -1442,16 +1292,13 @@
       <c r="D50">
         <v>17.92857142857143</v>
       </c>
-      <c r="E50">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>27.73060522929387</v>
@@ -1459,16 +1306,13 @@
       <c r="D51">
         <v>28.07692307692308</v>
       </c>
-      <c r="E51">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>21.37433775412857</v>
@@ -1476,16 +1320,13 @@
       <c r="D52">
         <v>29.04347826086957</v>
       </c>
-      <c r="E52">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>23.42514908173169</v>
@@ -1493,16 +1334,13 @@
       <c r="D53">
         <v>28.07692307692308</v>
       </c>
-      <c r="E53">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>17.85014585097399</v>
@@ -1510,16 +1348,13 @@
       <c r="D54">
         <v>25.66666666666667</v>
       </c>
-      <c r="E54">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>26.10215169625219</v>
@@ -1527,16 +1362,13 @@
       <c r="D55">
         <v>28.07692307692308</v>
       </c>
-      <c r="E55">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>26.30217562647559</v>
@@ -1544,16 +1376,13 @@
       <c r="D56">
         <v>28.5</v>
       </c>
-      <c r="E56">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>18.15115857834826</v>
@@ -1561,16 +1390,13 @@
       <c r="D57">
         <v>21.75</v>
       </c>
-      <c r="E57">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>20.03573373422974</v>
@@ -1578,16 +1404,13 @@
       <c r="D58">
         <v>22</v>
       </c>
-      <c r="E58">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>27.33662829621447</v>
@@ -1595,16 +1418,13 @@
       <c r="D59">
         <v>28.07692307692308</v>
       </c>
-      <c r="E59">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>24.9387310073603</v>
@@ -1612,16 +1432,13 @@
       <c r="D60">
         <v>19.83333333333333</v>
       </c>
-      <c r="E60">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>25.54819395993037</v>
@@ -1629,16 +1446,13 @@
       <c r="D61">
         <v>28.5</v>
       </c>
-      <c r="E61">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>24.44515052973082</v>
@@ -1646,16 +1460,13 @@
       <c r="D62">
         <v>28.07692307692308</v>
       </c>
-      <c r="E62">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>27.93788100729018</v>
@@ -1663,16 +1474,13 @@
       <c r="D63">
         <v>29.04347826086957</v>
       </c>
-      <c r="E63">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>25.31995430743398</v>
@@ -1680,16 +1488,13 @@
       <c r="D64">
         <v>2.999999999999999</v>
       </c>
-      <c r="E64">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>24.88864223420861</v>
@@ -1697,16 +1502,13 @@
       <c r="D65">
         <v>29.04347826086957</v>
       </c>
-      <c r="E65">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>25.82147538217705</v>
@@ -1714,16 +1516,13 @@
       <c r="D66">
         <v>29.04347826086957</v>
       </c>
-      <c r="E66">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>21.85441376480239</v>
@@ -1731,16 +1530,13 @@
       <c r="D67">
         <v>28.5</v>
       </c>
-      <c r="E67">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>23.92861829256622</v>
@@ -1748,33 +1544,27 @@
       <c r="D68">
         <v>29.04347826086957</v>
       </c>
-      <c r="E68">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>23.87295260137848</v>
       </c>
       <c r="D69">
-        <v>16</v>
-      </c>
-      <c r="E69">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <v>25.11922973333535</v>
@@ -1782,25 +1572,19 @@
       <c r="D70">
         <v>17.92857142857143</v>
       </c>
-      <c r="E70">
-        <v>22.76582278481013</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>16.96053647880519</v>
       </c>
       <c r="D71">
         <v>17.92857142857143</v>
-      </c>
-      <c r="E71">
-        <v>22.76582278481013</v>
       </c>
     </row>
   </sheetData>
